--- a/Trunk_tools/Table/weapons.xlsx
+++ b/Trunk_tools/Table/weapons.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92B3F88-89EA-4DE3-AFD4-5215C84DC115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-50640" yWindow="-10050" windowWidth="29475" windowHeight="16665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,137 +20,231 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="56">
+  <si>
+    <t>WeaponName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ParameterName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon_GM_Force</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W3001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W4001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GM_Force</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BulletSpeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BulletFireMode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹生成方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArmorBreak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这把武器的破盾效率，0为没有破盾效率，数值越高破盾效率越高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VaildShootRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>武器名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>武器伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>武器射程</t>
-  </si>
-  <si>
-    <t>WeaponName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Damage</t>
-  </si>
-  <si>
-    <t>VaildShootRange</t>
-  </si>
-  <si>
-    <t>EN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DataType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ParameterName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Position</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(0,0,0)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vector3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vector2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Whrer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(0,0)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全局ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weapon_Fire_ChainSaw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Weapon_Thunder_Ray</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fire_ChainSaw</t>
-  </si>
-  <si>
-    <t>Thunder_Ray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破盾值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BulletModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HitParticle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹会以什么形式射出去（1为实例化子弹实体，2为射线，如果选择射线的话可以不填子弹速度和子弹模型）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BulletTest</t>
+  </si>
+  <si>
+    <t>VFX_HitYellow</t>
+  </si>
+  <si>
+    <t>VFX_Hit_B</t>
+  </si>
+  <si>
+    <t>BulletTest_B</t>
+  </si>
+  <si>
+    <t>IsLimitAmmo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxAmmoCarry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AmmoPreMag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否有限弹药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>needReload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否需要换弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该种弹药最大携带数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个弹匣的容量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReloadDuration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>换弹所需时间(秒)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开火速率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每颗子弹的射击间隔(秒)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon_AssaultRifle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon_Rifle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AssaultRifle</t>
+  </si>
+  <si>
+    <t>Rifle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,19 +258,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF0F0F0F"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF0F0F0F"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -198,10 +280,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -481,188 +564,409 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.375" customWidth="1"/>
-    <col min="2" max="2" width="21.5" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="21.75" customWidth="1"/>
+    <col min="1" max="1" width="14.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.25" style="1" customWidth="1"/>
+    <col min="13" max="13" width="23.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="17.75" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.25" style="1" customWidth="1"/>
+    <col min="16" max="16" width="17.125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="17.875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="1" spans="1:17" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="G1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="H3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="F5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1">
+        <v>100</v>
+      </c>
+      <c r="F6" s="1">
+        <v>99999</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>999999</v>
+      </c>
+      <c r="I6" s="1">
+        <v>100</v>
+      </c>
+      <c r="J6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>50</v>
+      </c>
+      <c r="M6" s="1">
+        <v>500</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="1">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1">
+        <v>100</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>100</v>
+      </c>
+      <c r="I7" s="1">
+        <v>20</v>
+      </c>
+      <c r="J7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1">
+        <v>30</v>
+      </c>
+      <c r="M7" s="1">
+        <v>100</v>
+      </c>
+      <c r="N7" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O7" s="1">
+        <v>2</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="1">
+        <v>300</v>
+      </c>
+      <c r="F8" s="1">
+        <v>200</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>100</v>
+      </c>
+      <c r="I8" s="1">
+        <v>200</v>
+      </c>
+      <c r="J8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1">
+        <v>5</v>
+      </c>
+      <c r="M8" s="1">
+        <v>50</v>
+      </c>
+      <c r="N8" s="1">
+        <v>1</v>
+      </c>
+      <c r="O8" s="1">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6">
-        <v>3001</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6">
-        <v>10</v>
-      </c>
-      <c r="F6">
-        <v>100</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7">
-        <v>4001</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7">
-        <v>20</v>
-      </c>
-      <c r="F7">
-        <v>200</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>24</v>
+      <c r="P8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Trunk_tools/Table/weapons.xlsx
+++ b/Trunk_tools/Table/weapons.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92B3F88-89EA-4DE3-AFD4-5215C84DC115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855137A3-91B1-4618-8B1E-6C38980D4B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-50640" yWindow="-10050" windowWidth="29475" windowHeight="16665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5775" yWindow="2505" windowWidth="29475" windowHeight="16665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="59">
   <si>
     <t>WeaponName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -238,6 +238,18 @@
   </si>
   <si>
     <t>Rifle</t>
+  </si>
+  <si>
+    <t>Weapon_Bot_Prototype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bot_Prototype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -565,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -871,13 +883,13 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E7" s="1">
         <v>10</v>
@@ -892,48 +904,48 @@
         <v>100</v>
       </c>
       <c r="I7" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J7" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="1">
         <v>30</v>
       </c>
       <c r="M7" s="1">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N7" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="O7" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E8" s="1">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="F8" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
@@ -942,7 +954,7 @@
         <v>100</v>
       </c>
       <c r="I8" s="1">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="J8" s="1" t="b">
         <v>1</v>
@@ -951,21 +963,71 @@
         <v>1</v>
       </c>
       <c r="L8" s="1">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="M8" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N8" s="1">
-        <v>1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="O8" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>33</v>
       </c>
       <c r="Q8" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="1">
+        <v>300</v>
+      </c>
+      <c r="F9" s="1">
+        <v>200</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>100</v>
+      </c>
+      <c r="I9" s="1">
+        <v>200</v>
+      </c>
+      <c r="J9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1">
+        <v>5</v>
+      </c>
+      <c r="M9" s="1">
+        <v>50</v>
+      </c>
+      <c r="N9" s="1">
+        <v>1</v>
+      </c>
+      <c r="O9" s="1">
+        <v>4</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q9" s="1" t="s">
         <v>34</v>
       </c>
     </row>

--- a/Trunk_tools/Table/weapons.xlsx
+++ b/Trunk_tools/Table/weapons.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855137A3-91B1-4618-8B1E-6C38980D4B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B1B2CD-D7EE-4AFB-9CE9-FC11107150BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5775" yWindow="2505" windowWidth="29475" windowHeight="16665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-34560" yWindow="-9540" windowWidth="28065" windowHeight="16665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -579,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Trunk_tools/Table/weapons.xlsx
+++ b/Trunk_tools/Table/weapons.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B1B2CD-D7EE-4AFB-9CE9-FC11107150BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF9D6D3-990D-4E3C-94F0-8790B54D3724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34560" yWindow="-9540" windowWidth="28065" windowHeight="16665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14355" yWindow="3075" windowWidth="28065" windowHeight="16665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -579,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Trunk_tools/Table/weapons.xlsx
+++ b/Trunk_tools/Table/weapons.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF9D6D3-990D-4E3C-94F0-8790B54D3724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584365CF-AF18-4324-A22D-BA3D4C06B1BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14355" yWindow="3075" windowWidth="28065" windowHeight="16665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1485" yWindow="3435" windowWidth="41850" windowHeight="16665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="59">
   <si>
     <t>WeaponName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,10 +82,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GM_Force</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BulletSpeed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -234,12 +230,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AssaultRifle</t>
-  </si>
-  <si>
-    <t>Rifle</t>
-  </si>
-  <si>
     <t>Weapon_Bot_Prototype</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -248,7 +238,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Bot_Prototype</t>
+    <t>FastReloadDuration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速换弹所需时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blaster</t>
+  </si>
+  <si>
+    <t>Blaster</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -577,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -602,24 +603,26 @@
     <col min="15" max="15" width="16.25" style="1" customWidth="1"/>
     <col min="16" max="16" width="17.125" style="1" customWidth="1"/>
     <col min="17" max="17" width="17.875" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="1"/>
+    <col min="18" max="18" width="27" style="1" customWidth="1"/>
+    <col min="19" max="19" width="22.875" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="99.75" x14ac:dyDescent="0.2">
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>51</v>
-      </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -633,46 +636,49 @@
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="N2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -701,10 +707,10 @@
         <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>6</v>
@@ -719,13 +725,16 @@
         <v>7</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="R3" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -739,46 +748,49 @@
         <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="N4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="1" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -789,49 +801,52 @@
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="J5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="N5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Q5" s="1" t="s">
-        <v>32</v>
-      </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
@@ -839,7 +854,7 @@
         <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="E6" s="1">
         <v>100</v>
@@ -874,22 +889,25 @@
       <c r="O6" s="1">
         <v>0</v>
       </c>
-      <c r="P6" s="1" t="s">
-        <v>36</v>
+      <c r="P6" s="1">
+        <v>0</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="R6" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="E7" s="1">
         <v>10</v>
@@ -924,22 +942,25 @@
       <c r="O7" s="1">
         <v>0</v>
       </c>
-      <c r="P7" s="1" t="s">
-        <v>36</v>
+      <c r="P7" s="1">
+        <v>0</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="R7" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E8" s="1">
         <v>10</v>
@@ -972,24 +993,27 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="O8" s="1">
+        <v>3</v>
+      </c>
+      <c r="P8" s="1">
         <v>2</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Q8" s="1" t="s">
-        <v>34</v>
-      </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E9" s="1">
         <v>300</v>
@@ -1024,11 +1048,14 @@
       <c r="O9" s="1">
         <v>4</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="P9" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R9" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Trunk_tools/Table/weapons.xlsx
+++ b/Trunk_tools/Table/weapons.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584365CF-AF18-4324-A22D-BA3D4C06B1BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF4357D1-E2B1-4E27-B7C9-5A1DCBB6D1A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1485" yWindow="3435" windowWidth="41850" windowHeight="16665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5415" yWindow="2280" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="61">
   <si>
     <t>WeaponName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -250,6 +250,14 @@
   </si>
   <si>
     <t>Blaster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon_Bot_Prototype_T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W0001_T</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -578,16 +586,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
     <col min="4" max="4" width="24" style="1" customWidth="1"/>
     <col min="5" max="5" width="21.75" style="1" customWidth="1"/>
@@ -901,10 +909,10 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>57</v>
@@ -919,7 +927,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I7" s="1">
         <v>10</v>
@@ -954,10 +962,10 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>57</v>
@@ -975,51 +983,51 @@
         <v>100</v>
       </c>
       <c r="I8" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J8" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="1">
         <v>30</v>
       </c>
       <c r="M8" s="1">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="N8" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="O8" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>57</v>
       </c>
       <c r="E9" s="1">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="F9" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G9" s="1">
         <v>1</v>
@@ -1028,7 +1036,7 @@
         <v>100</v>
       </c>
       <c r="I9" s="1">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="J9" s="1" t="b">
         <v>1</v>
@@ -1037,24 +1045,77 @@
         <v>1</v>
       </c>
       <c r="L9" s="1">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="M9" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N9" s="1">
-        <v>1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="O9" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P9" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>32</v>
       </c>
       <c r="R9" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="1">
+        <v>300</v>
+      </c>
+      <c r="F10" s="1">
+        <v>200</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>100</v>
+      </c>
+      <c r="I10" s="1">
+        <v>200</v>
+      </c>
+      <c r="J10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1">
+        <v>5</v>
+      </c>
+      <c r="M10" s="1">
+        <v>50</v>
+      </c>
+      <c r="N10" s="1">
+        <v>1</v>
+      </c>
+      <c r="O10" s="1">
+        <v>4</v>
+      </c>
+      <c r="P10" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R10" s="1" t="s">
         <v>33</v>
       </c>
     </row>

--- a/Trunk_tools/Table/weapons.xlsx
+++ b/Trunk_tools/Table/weapons.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF4357D1-E2B1-4E27-B7C9-5A1DCBB6D1A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1C1F9D-5462-4D95-93A8-5AF5E4430B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5415" yWindow="2280" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="72">
   <si>
     <t>WeaponName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -258,6 +258,50 @@
   </si>
   <si>
     <t>W0001_T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeaponDescribe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>象征着至高权力的GM之枪，IWA荣誉出品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeaponType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W4002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这有什么好看的，你又玩不到。不会真以为你能玩到测试的超模武器吧。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVTK-009电磁轨道炮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon_EVTK009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代表了武器的类别，别问为什么没有0和1，因为是未实装的空手和手枪！0空手1手枪2冲锋枪3突击步枪4轻机枪5射手步枪6狙击步枪7特种武器（暂定）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -586,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -607,30 +651,34 @@
     <col min="11" max="11" width="16.125" style="1" customWidth="1"/>
     <col min="12" max="12" width="15.25" style="1" customWidth="1"/>
     <col min="13" max="13" width="23.875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="17.75" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.25" style="1" customWidth="1"/>
+    <col min="14" max="14" width="24.625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="20.875" style="1" customWidth="1"/>
     <col min="16" max="16" width="17.125" style="1" customWidth="1"/>
     <col min="17" max="17" width="17.875" style="1" customWidth="1"/>
     <col min="18" max="18" width="27" style="1" customWidth="1"/>
-    <col min="19" max="19" width="22.875" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="1"/>
+    <col min="19" max="19" width="36.25" style="1" customWidth="1"/>
+    <col min="20" max="20" width="35.5" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="G1" s="1" t="s">
+    <row r="1" spans="1:20" ht="114" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -644,49 +692,55 @@
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -700,49 +754,55 @@
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="Q3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -756,49 +816,55 @@
         <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -812,49 +878,55 @@
         <v>23</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
@@ -864,50 +936,56 @@
       <c r="D6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1">
         <v>100</v>
       </c>
-      <c r="F6" s="1">
+      <c r="H6" s="1">
         <v>99999</v>
       </c>
-      <c r="G6" s="1">
+      <c r="I6" s="1">
         <v>2</v>
       </c>
-      <c r="H6" s="1">
+      <c r="J6" s="1">
         <v>999999</v>
       </c>
-      <c r="I6" s="1">
+      <c r="K6" s="1">
         <v>100</v>
       </c>
-      <c r="J6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" s="1">
+      <c r="L6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
         <v>50</v>
       </c>
-      <c r="M6" s="1">
+      <c r="O6" s="1">
         <v>500</v>
       </c>
-      <c r="N6" s="1">
+      <c r="P6" s="1">
         <v>0.05</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="1" t="s">
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="T6" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>59</v>
       </c>
@@ -917,50 +995,56 @@
       <c r="D7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="1">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1">
         <v>10</v>
       </c>
-      <c r="F7" s="1">
+      <c r="H7" s="1">
         <v>100</v>
       </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
         <v>10</v>
       </c>
-      <c r="I7" s="1">
+      <c r="K7" s="1">
         <v>10</v>
       </c>
-      <c r="J7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7" s="1">
+      <c r="L7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
         <v>30</v>
       </c>
-      <c r="M7" s="1">
+      <c r="O7" s="1">
         <v>30</v>
       </c>
-      <c r="N7" s="1">
+      <c r="P7" s="1">
         <v>0.05</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="1" t="s">
+      <c r="Q7" s="1">
+        <v>0</v>
+      </c>
+      <c r="R7" s="1">
+        <v>0</v>
+      </c>
+      <c r="S7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="T7" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>53</v>
       </c>
@@ -970,50 +1054,56 @@
       <c r="D8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1">
         <v>10</v>
-      </c>
-      <c r="F8" s="1">
-        <v>100</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1</v>
       </c>
       <c r="H8" s="1">
         <v>100</v>
       </c>
       <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>100</v>
+      </c>
+      <c r="K8" s="1">
         <v>10</v>
       </c>
-      <c r="J8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" s="1">
+      <c r="L8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
         <v>30</v>
       </c>
-      <c r="M8" s="1">
+      <c r="O8" s="1">
         <v>30</v>
       </c>
-      <c r="N8" s="1">
+      <c r="P8" s="1">
         <v>0.05</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-      <c r="P8" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="1" t="s">
+      <c r="Q8" s="1">
+        <v>0</v>
+      </c>
+      <c r="R8" s="1">
+        <v>0</v>
+      </c>
+      <c r="S8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="T8" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>51</v>
       </c>
@@ -1023,50 +1113,56 @@
       <c r="D9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1">
         <v>10</v>
-      </c>
-      <c r="F9" s="1">
-        <v>100</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1</v>
       </c>
       <c r="H9" s="1">
         <v>100</v>
       </c>
       <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>100</v>
+      </c>
+      <c r="K9" s="1">
         <v>20</v>
       </c>
-      <c r="J9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L9" s="1">
+      <c r="L9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N9" s="1">
         <v>30</v>
       </c>
-      <c r="M9" s="1">
+      <c r="O9" s="1">
         <v>100</v>
       </c>
-      <c r="N9" s="1">
+      <c r="P9" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="O9" s="1">
+      <c r="Q9" s="1">
         <v>3</v>
       </c>
-      <c r="P9" s="1">
+      <c r="R9" s="1">
         <v>2</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="S9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="T9" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>52</v>
       </c>
@@ -1074,48 +1170,113 @@
         <v>13</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="1">
+        <v>58</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="1">
+        <v>6</v>
+      </c>
+      <c r="G10" s="1">
         <v>300</v>
       </c>
-      <c r="F10" s="1">
+      <c r="H10" s="1">
         <v>200</v>
       </c>
-      <c r="G10" s="1">
-        <v>1</v>
-      </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
         <v>100</v>
       </c>
-      <c r="I10" s="1">
+      <c r="K10" s="1">
         <v>200</v>
       </c>
-      <c r="J10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L10" s="1">
+      <c r="L10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N10" s="1">
         <v>5</v>
       </c>
-      <c r="M10" s="1">
+      <c r="O10" s="1">
         <v>50</v>
       </c>
-      <c r="N10" s="1">
-        <v>1</v>
-      </c>
-      <c r="O10" s="1">
+      <c r="P10" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="1">
         <v>4</v>
       </c>
-      <c r="P10" s="1">
+      <c r="R10" s="1">
         <v>3</v>
       </c>
-      <c r="Q10" s="1" t="s">
+      <c r="S10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="R10" s="1" t="s">
+      <c r="T10" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="1">
+        <v>7</v>
+      </c>
+      <c r="G11" s="1">
+        <v>9999999</v>
+      </c>
+      <c r="H11" s="1">
+        <v>200</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>100</v>
+      </c>
+      <c r="K11" s="1">
+        <v>9999999</v>
+      </c>
+      <c r="L11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="N11" s="1">
+        <v>5</v>
+      </c>
+      <c r="O11" s="1">
+        <v>50</v>
+      </c>
+      <c r="P11" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>4</v>
+      </c>
+      <c r="R11" s="1">
+        <v>3</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T11" s="1" t="s">
         <v>33</v>
       </c>
     </row>

--- a/Trunk_tools/Table/weapons.xlsx
+++ b/Trunk_tools/Table/weapons.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1C1F9D-5462-4D95-93A8-5AF5E4430B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC8410D-B04A-4041-8434-AE15DB058D60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="75">
   <si>
     <t>WeaponName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -302,6 +302,18 @@
   </si>
   <si>
     <t>代表了武器的类别，别问为什么没有0和1，因为是未实装的空手和手枪！0空手1手枪2冲锋枪3突击步枪4轻机枪5射手步枪6狙击步枪7特种武器（暂定）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeaponPrefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器对应的模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IGNITE Blaster</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -630,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:U11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -644,41 +656,42 @@
     <col min="4" max="4" width="24" style="1" customWidth="1"/>
     <col min="5" max="5" width="21.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.25" style="1" customWidth="1"/>
-    <col min="13" max="13" width="23.875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="24.625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="20.875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="17.125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="17.875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="27" style="1" customWidth="1"/>
-    <col min="19" max="19" width="36.25" style="1" customWidth="1"/>
-    <col min="20" max="20" width="35.5" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="1"/>
+    <col min="7" max="7" width="27.625" customWidth="1"/>
+    <col min="8" max="8" width="15.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15.25" style="1" customWidth="1"/>
+    <col min="14" max="14" width="23.875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="24.625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="20.875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="17.125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="17.875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="27" style="1" customWidth="1"/>
+    <col min="20" max="20" width="36.25" style="1" customWidth="1"/>
+    <col min="21" max="21" width="35.5" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="114" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="114" x14ac:dyDescent="0.2">
       <c r="F1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -698,49 +711,52 @@
         <v>64</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -760,34 +776,34 @@
         <v>6</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>39</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>7</v>
@@ -796,13 +812,16 @@
         <v>7</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="U3" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -822,49 +841,52 @@
         <v>64</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="U4" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -884,49 +906,52 @@
         <v>65</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="U5" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
@@ -942,50 +967,53 @@
       <c r="F6" s="1">
         <v>2</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="1">
         <v>100</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>99999</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>2</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <v>999999</v>
       </c>
-      <c r="K6" s="1">
+      <c r="L6" s="1">
         <v>100</v>
-      </c>
-      <c r="L6" s="1" t="b">
-        <v>0</v>
       </c>
       <c r="M6" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
         <v>50</v>
       </c>
-      <c r="O6" s="1">
+      <c r="P6" s="1">
         <v>500</v>
       </c>
-      <c r="P6" s="1">
+      <c r="Q6" s="1">
         <v>0.05</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>0</v>
       </c>
       <c r="R6" s="1">
         <v>0</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="U6" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>59</v>
       </c>
@@ -1001,50 +1029,53 @@
       <c r="F7" s="1">
         <v>5</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="1">
         <v>10</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>100</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <v>1</v>
-      </c>
-      <c r="J7" s="1">
-        <v>10</v>
       </c>
       <c r="K7" s="1">
         <v>10</v>
       </c>
-      <c r="L7" s="1" t="b">
-        <v>0</v>
+      <c r="L7" s="1">
+        <v>10</v>
       </c>
       <c r="M7" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="N7" s="1">
-        <v>30</v>
+      <c r="N7" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="O7" s="1">
         <v>30</v>
       </c>
       <c r="P7" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q7" s="1">
         <v>0.05</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>0</v>
       </c>
       <c r="R7" s="1">
         <v>0</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="S7" s="1">
+        <v>0</v>
+      </c>
+      <c r="T7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="U7" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>53</v>
       </c>
@@ -1060,50 +1091,53 @@
       <c r="F8" s="1">
         <v>2</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="1">
         <v>10</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>100</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1">
         <v>1</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K8" s="1">
         <v>100</v>
       </c>
-      <c r="K8" s="1">
+      <c r="L8" s="1">
         <v>10</v>
-      </c>
-      <c r="L8" s="1" t="b">
-        <v>0</v>
       </c>
       <c r="M8" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="N8" s="1">
-        <v>30</v>
+      <c r="N8" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="O8" s="1">
         <v>30</v>
       </c>
       <c r="P8" s="1">
+        <v>30</v>
+      </c>
+      <c r="Q8" s="1">
         <v>0.05</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>0</v>
       </c>
       <c r="R8" s="1">
         <v>0</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="S8" s="1">
+        <v>0</v>
+      </c>
+      <c r="T8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T8" s="1" t="s">
+      <c r="U8" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>51</v>
       </c>
@@ -1119,50 +1153,53 @@
       <c r="F9" s="1">
         <v>3</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="1">
         <v>10</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>100</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="1">
         <v>1</v>
       </c>
-      <c r="J9" s="1">
+      <c r="K9" s="1">
         <v>100</v>
       </c>
-      <c r="K9" s="1">
+      <c r="L9" s="1">
         <v>20</v>
-      </c>
-      <c r="L9" s="1" t="b">
-        <v>1</v>
       </c>
       <c r="M9" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="N9" s="1">
+      <c r="N9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O9" s="1">
         <v>30</v>
       </c>
-      <c r="O9" s="1">
+      <c r="P9" s="1">
         <v>100</v>
       </c>
-      <c r="P9" s="1">
+      <c r="Q9" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="R9" s="1">
         <v>3</v>
       </c>
-      <c r="R9" s="1">
+      <c r="S9" s="1">
         <v>2</v>
       </c>
-      <c r="S9" s="1" t="s">
+      <c r="T9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="T9" s="1" t="s">
+      <c r="U9" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>52</v>
       </c>
@@ -1178,50 +1215,53 @@
       <c r="F10" s="1">
         <v>6</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="1">
         <v>300</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
         <v>200</v>
       </c>
-      <c r="I10" s="1">
+      <c r="J10" s="1">
         <v>1</v>
       </c>
-      <c r="J10" s="1">
+      <c r="K10" s="1">
         <v>100</v>
       </c>
-      <c r="K10" s="1">
+      <c r="L10" s="1">
         <v>200</v>
-      </c>
-      <c r="L10" s="1" t="b">
-        <v>1</v>
       </c>
       <c r="M10" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="N10" s="1">
+      <c r="N10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O10" s="1">
         <v>5</v>
       </c>
-      <c r="O10" s="1">
+      <c r="P10" s="1">
         <v>50</v>
       </c>
-      <c r="P10" s="1">
+      <c r="Q10" s="1">
         <v>1</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="R10" s="1">
         <v>4</v>
       </c>
-      <c r="R10" s="1">
+      <c r="S10" s="1">
         <v>3</v>
       </c>
-      <c r="S10" s="1" t="s">
+      <c r="T10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="T10" s="1" t="s">
+      <c r="U10" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" ht="42.75" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>70</v>
       </c>
@@ -1237,46 +1277,49 @@
       <c r="F11" s="1">
         <v>7</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" s="1">
         <v>9999999</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
         <v>200</v>
       </c>
-      <c r="I11" s="1">
+      <c r="J11" s="1">
         <v>1</v>
       </c>
-      <c r="J11" s="1">
+      <c r="K11" s="1">
         <v>100</v>
       </c>
-      <c r="K11" s="1">
+      <c r="L11" s="1">
         <v>9999999</v>
-      </c>
-      <c r="L11" s="1" t="b">
-        <v>1</v>
       </c>
       <c r="M11" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="N11" s="1">
+      <c r="N11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O11" s="1">
         <v>5</v>
       </c>
-      <c r="O11" s="1">
+      <c r="P11" s="1">
         <v>50</v>
       </c>
-      <c r="P11" s="1">
+      <c r="Q11" s="1">
         <v>1</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="R11" s="1">
         <v>4</v>
       </c>
-      <c r="R11" s="1">
+      <c r="S11" s="1">
         <v>3</v>
       </c>
-      <c r="S11" s="1" t="s">
+      <c r="T11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="T11" s="1" t="s">
+      <c r="U11" s="1" t="s">
         <v>33</v>
       </c>
     </row>

--- a/Trunk_tools/Table/weapons.xlsx
+++ b/Trunk_tools/Table/weapons.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC8410D-B04A-4041-8434-AE15DB058D60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -320,7 +319,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -641,36 +640,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozenSplit"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
+      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18" style="1" customWidth="1"/>
-    <col min="7" max="7" width="27.625" customWidth="1"/>
-    <col min="8" max="8" width="15.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="16.125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="15.25" style="1" customWidth="1"/>
-    <col min="14" max="14" width="23.875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="24.625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="20.875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="17.125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="17.875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="27" style="1" customWidth="1"/>
-    <col min="20" max="20" width="36.25" style="1" customWidth="1"/>
-    <col min="21" max="21" width="35.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.125" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -699,10 +701,10 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>61</v>
@@ -829,10 +831,10 @@
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>61</v>
@@ -894,10 +896,10 @@
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>62</v>
@@ -956,10 +958,10 @@
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>63</v>
@@ -1018,10 +1020,10 @@
         <v>59</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>66</v>
@@ -1080,10 +1082,10 @@
         <v>53</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>66</v>
@@ -1142,10 +1144,10 @@
         <v>51</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>66</v>
@@ -1204,10 +1206,10 @@
         <v>52</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>66</v>
@@ -1266,10 +1268,10 @@
         <v>70</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>68</v>
